--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_14_17.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_14_17.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>117361.4142191588</v>
+        <v>114660.1975677022</v>
       </c>
     </row>
     <row r="7">
@@ -662,22 +662,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>259.6326967715747</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>232.2791855053265</v>
       </c>
       <c r="G2" t="n">
-        <v>12.83417464571001</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="I2" t="n">
-        <v>115.3066195468971</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,10 +707,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>212.2897156032232</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>109.0923554845737</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -744,16 +744,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>136.0227195864234</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>99.47932027120976</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -786,19 +786,19 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8544875035546</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>196.6159716259686</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -817,13 +817,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>107.61715861066</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -832,7 +832,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>152.3821593358568</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -865,10 +865,10 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>27.52185642477213</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T4" t="n">
-        <v>223.2143458795659</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>71.69612874190263</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>362.5723134240151</v>
       </c>
       <c r="F5" t="n">
-        <v>383.6877278154298</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>12.41899097776993</v>
+        <v>12.41899097776992</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>99.30025118863708</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,22 +947,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>210.4722490968155</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>383.6877278154298</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -972,10 +972,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -1020,16 +1020,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>4.360182258713991</v>
+        <v>4.360182258713721</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>143.0237294698458</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>193.9455960238325</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8398728426018</v>
+        <v>143.4977243895859</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1038,10 +1038,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>42.76916592490053</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1051,13 +1051,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>1.905236112643436</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1099,19 +1099,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>119.1307056315185</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>201.4735595059547</v>
+        <v>100.0385265718187</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>222.4186055422208</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>198.5117251624613</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1133,25 +1133,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>95.20864059260764</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>364.3462170014161</v>
       </c>
     </row>
     <row r="9">
@@ -1288,22 +1288,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
         <v>147.2515091551289</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>5.914299937224753</v>
+        <v>79.21127320379564</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1345,16 +1345,16 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1385,10 +1385,10 @@
         <v>410.4696069132659</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>289.9775033393748</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>24.14662204184555</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>98.88510599615208</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>201.9388203544491</v>
+        <v>201.9388203544492</v>
       </c>
       <c r="U11" t="n">
-        <v>250.959002459687</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1433,10 +1433,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>227.1061228084965</v>
+        <v>266.3302028756877</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1467,7 +1467,7 @@
         <v>87.2605838181255</v>
       </c>
       <c r="I12" t="n">
-        <v>10.48847705530787</v>
+        <v>10.48847705530788</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1528,22 +1528,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.8230033569236</v>
       </c>
       <c r="H13" t="n">
-        <v>142.9518949665179</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1576,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>186.2346889920369</v>
       </c>
       <c r="T13" t="n">
         <v>218.682419239904</v>
@@ -1585,16 +1585,16 @@
         <v>286.2007761200435</v>
       </c>
       <c r="V13" t="n">
-        <v>79.34598210483551</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>91.64992221174762</v>
       </c>
     </row>
     <row r="14">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634796</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1701,7 +1701,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1780,7 +1780,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462261</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,16 +1810,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>42.20606459030889</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>73.44478684180325</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1844,7 +1844,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710066</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -2005,10 +2005,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -2017,10 +2017,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>73.44478684180592</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2056,7 +2056,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>142.5631989720279</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2239,10 +2239,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -2251,10 +2251,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,16 +2284,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>66.25628701154714</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>244.6418937426537</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2473,10 +2473,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -2485,16 +2485,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>39.52129633183142</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>35.03063761899485</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2536,7 +2536,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2615,7 +2615,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>102.3802743186426</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2719,16 +2719,16 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>1.799772605716844</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2773,7 +2773,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2846,7 +2846,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2947,13 +2947,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>43.98166197004215</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -2995,25 +2995,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>208.7327685259484</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634797</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3193,19 +3193,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428156</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3238,10 +3238,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>73.23997380652402</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3269,13 +3269,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>354.683041620682</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417101</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>409.8033385187866</v>
@@ -3427,22 +3427,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>9.570729811036349</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428152</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3475,7 +3475,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3487,7 +3487,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3557,7 +3557,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881278</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3661,7 +3661,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>100.7362831624772</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3670,16 +3670,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428085</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3712,7 +3712,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3791,7 +3791,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
         <v>250.9057009881286</v>
@@ -3898,25 +3898,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>39.99000985192075</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428202</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3952,7 +3952,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3983,7 +3983,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4141,13 +4141,13 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>14.92158678358328</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
@@ -4201,7 +4201,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,46 +4304,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>419.733006062639</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="C2" t="n">
-        <v>419.733006062639</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="D2" t="n">
-        <v>157.4777567984221</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="E2" t="n">
-        <v>157.4777567984221</v>
+        <v>788.4778634388466</v>
       </c>
       <c r="F2" t="n">
-        <v>150.5322560492186</v>
+        <v>553.8524235344764</v>
       </c>
       <c r="G2" t="n">
-        <v>137.5684432757741</v>
+        <v>287.4747669672984</v>
       </c>
       <c r="H2" t="n">
-        <v>137.5684432757741</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I2" t="n">
         <v>21.09711040012049</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917579</v>
+        <v>49.28269087917624</v>
       </c>
       <c r="K2" t="n">
-        <v>142.264087905254</v>
+        <v>142.2640879052547</v>
       </c>
       <c r="L2" t="n">
-        <v>294.5174947515905</v>
+        <v>294.5174947515912</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030603</v>
+        <v>495.5981834030611</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991316</v>
+        <v>704.5463761991323</v>
       </c>
       <c r="O2" t="n">
-        <v>888.5149683358413</v>
+        <v>888.5149683358418</v>
       </c>
       <c r="P2" t="n">
         <v>1011.026904601763</v>
@@ -4355,25 +4355,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S2" t="n">
-        <v>900.5447187946889</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T2" t="n">
-        <v>686.1106626298169</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U2" t="n">
-        <v>686.1106626298169</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V2" t="n">
-        <v>686.1106626298169</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="W2" t="n">
-        <v>686.1106626298169</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="X2" t="n">
-        <v>686.1106626298169</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="Y2" t="n">
-        <v>419.733006062639</v>
+        <v>1054.855520006025</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4383,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>479.4813841052953</v>
+        <v>455.2717565768139</v>
       </c>
       <c r="C3" t="n">
-        <v>305.0283548241683</v>
+        <v>280.8187272956869</v>
       </c>
       <c r="D3" t="n">
-        <v>305.0283548241683</v>
+        <v>280.8187272956869</v>
       </c>
       <c r="E3" t="n">
-        <v>305.0283548241683</v>
+        <v>121.5812722902314</v>
       </c>
       <c r="F3" t="n">
-        <v>158.4937968510533</v>
+        <v>121.5812722902314</v>
       </c>
       <c r="G3" t="n">
-        <v>21.09711040012049</v>
+        <v>121.5812722902314</v>
       </c>
       <c r="H3" t="n">
         <v>21.09711040012049</v>
@@ -4410,19 +4410,19 @@
         <v>21.09711040012049</v>
       </c>
       <c r="K3" t="n">
-        <v>95.78113116957465</v>
+        <v>192.1295835699347</v>
       </c>
       <c r="L3" t="n">
-        <v>242.5255548298713</v>
+        <v>338.8740072302313</v>
       </c>
       <c r="M3" t="n">
-        <v>433.1262439263951</v>
+        <v>529.4746963267551</v>
       </c>
       <c r="N3" t="n">
-        <v>643.1802110290001</v>
+        <v>739.52866342936</v>
       </c>
       <c r="O3" t="n">
-        <v>813.1187583557299</v>
+        <v>909.4672107560897</v>
       </c>
       <c r="P3" t="n">
         <v>1026.524810789493</v>
@@ -4434,25 +4434,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S3" t="n">
-        <v>906.2192216098642</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T3" t="n">
-        <v>906.2192216098642</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U3" t="n">
-        <v>678.0833756466777</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V3" t="n">
-        <v>479.4813841052953</v>
+        <v>819.7034117742819</v>
       </c>
       <c r="W3" t="n">
-        <v>479.4813841052953</v>
+        <v>565.4660550460803</v>
       </c>
       <c r="X3" t="n">
-        <v>479.4813841052953</v>
+        <v>565.4660550460803</v>
       </c>
       <c r="Y3" t="n">
-        <v>479.4813841052953</v>
+        <v>565.4660550460803</v>
       </c>
     </row>
     <row r="4">
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>619.9381639592817</v>
+        <v>445.627441442766</v>
       </c>
       <c r="C4" t="n">
-        <v>619.9381639592817</v>
+        <v>276.6912585148591</v>
       </c>
       <c r="D4" t="n">
-        <v>469.821524546946</v>
+        <v>276.6912585148591</v>
       </c>
       <c r="E4" t="n">
-        <v>321.9084309645528</v>
+        <v>167.9870578980309</v>
       </c>
       <c r="F4" t="n">
-        <v>175.0184834666425</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G4" t="n">
-        <v>175.0184834666425</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H4" t="n">
         <v>21.09711040012049</v>
@@ -4489,13 +4489,13 @@
         <v>21.09711040012049</v>
       </c>
       <c r="K4" t="n">
-        <v>126.4133765287949</v>
+        <v>126.4133765287946</v>
       </c>
       <c r="L4" t="n">
-        <v>316.708372655101</v>
+        <v>316.7083726551008</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375337</v>
+        <v>527.7368878375336</v>
       </c>
       <c r="N4" t="n">
         <v>739.1822330227046</v>
@@ -4513,25 +4513,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S4" t="n">
-        <v>1027.055665031507</v>
+        <v>848.0684854165359</v>
       </c>
       <c r="T4" t="n">
-        <v>801.5866287895215</v>
+        <v>848.0684854165359</v>
       </c>
       <c r="U4" t="n">
-        <v>801.5866287895215</v>
+        <v>848.0684854165359</v>
       </c>
       <c r="V4" t="n">
-        <v>801.5866287895215</v>
+        <v>848.0684854165359</v>
       </c>
       <c r="W4" t="n">
-        <v>801.5866287895215</v>
+        <v>848.0684854165359</v>
       </c>
       <c r="X4" t="n">
-        <v>801.5866287895215</v>
+        <v>848.0684854165359</v>
       </c>
       <c r="Y4" t="n">
-        <v>801.5866287895215</v>
+        <v>627.2759062730057</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>603.5264310774965</v>
+        <v>774.685312936527</v>
       </c>
       <c r="C5" t="n">
-        <v>531.1060990149685</v>
+        <v>774.685312936527</v>
       </c>
       <c r="D5" t="n">
-        <v>531.1060990149685</v>
+        <v>416.4196143297765</v>
       </c>
       <c r="E5" t="n">
-        <v>531.1060990149685</v>
+        <v>50.18495430551877</v>
       </c>
       <c r="F5" t="n">
-        <v>143.5427375852415</v>
+        <v>43.2394535563153</v>
       </c>
       <c r="G5" t="n">
-        <v>130.9983022541607</v>
+        <v>30.69501822523457</v>
       </c>
       <c r="H5" t="n">
-        <v>130.9983022541607</v>
+        <v>30.69501822523457</v>
       </c>
       <c r="I5" t="n">
-        <v>30.69501822523438</v>
+        <v>30.69501822523457</v>
       </c>
       <c r="J5" t="n">
-        <v>93.76641159275096</v>
+        <v>93.76641159275181</v>
       </c>
       <c r="K5" t="n">
-        <v>239.0325989245552</v>
+        <v>239.032598924557</v>
       </c>
       <c r="L5" t="n">
-        <v>456.1499114825617</v>
+        <v>456.1499114825647</v>
       </c>
       <c r="M5" t="n">
-        <v>729.4041931748835</v>
+        <v>729.4041931748877</v>
       </c>
       <c r="N5" t="n">
-        <v>1011.693823202376</v>
+        <v>1011.693823202382</v>
       </c>
       <c r="O5" t="n">
-        <v>1264.916654798409</v>
+        <v>1264.916654798416</v>
       </c>
       <c r="P5" t="n">
-        <v>1446.535482189405</v>
+        <v>1446.535482189414</v>
       </c>
       <c r="Q5" t="n">
-        <v>1534.750911261719</v>
+        <v>1534.750911261729</v>
       </c>
       <c r="R5" t="n">
-        <v>1534.750911261719</v>
+        <v>1534.750911261729</v>
       </c>
       <c r="S5" t="n">
-        <v>1534.750911261719</v>
+        <v>1534.750911261729</v>
       </c>
       <c r="T5" t="n">
-        <v>1322.152679850794</v>
+        <v>1534.750911261729</v>
       </c>
       <c r="U5" t="n">
-        <v>1322.152679850794</v>
+        <v>1534.750911261729</v>
       </c>
       <c r="V5" t="n">
-        <v>991.0897925072235</v>
+        <v>1534.750911261729</v>
       </c>
       <c r="W5" t="n">
-        <v>991.0897925072235</v>
+        <v>1534.750911261729</v>
       </c>
       <c r="X5" t="n">
-        <v>991.0897925072235</v>
+        <v>1161.285153000649</v>
       </c>
       <c r="Y5" t="n">
-        <v>603.5264310774965</v>
+        <v>1161.285153000649</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>797.0267698834965</v>
+        <v>622.5737406023698</v>
       </c>
       <c r="C6" t="n">
-        <v>622.5737406023695</v>
+        <v>622.5737406023698</v>
       </c>
       <c r="D6" t="n">
-        <v>473.6393309411183</v>
+        <v>473.6393309411185</v>
       </c>
       <c r="E6" t="n">
-        <v>314.4018759356628</v>
+        <v>314.401875935663</v>
       </c>
       <c r="F6" t="n">
-        <v>167.8673179625478</v>
+        <v>167.867317962548</v>
       </c>
       <c r="G6" t="n">
-        <v>30.69501822523438</v>
+        <v>30.69501822523457</v>
       </c>
       <c r="H6" t="n">
-        <v>30.69501822523438</v>
+        <v>30.69501822523457</v>
       </c>
       <c r="I6" t="n">
-        <v>30.69501822523438</v>
+        <v>30.69501822523457</v>
       </c>
       <c r="J6" t="n">
-        <v>49.4420610756339</v>
+        <v>49.44206107563451</v>
       </c>
       <c r="K6" t="n">
-        <v>159.6385680169439</v>
+        <v>388.9600665101442</v>
       </c>
       <c r="L6" t="n">
-        <v>449.9283204749617</v>
+        <v>583.4554103414966</v>
       </c>
       <c r="M6" t="n">
-        <v>829.7791710122372</v>
+        <v>829.7791710122431</v>
       </c>
       <c r="N6" t="n">
-        <v>1097.031033584459</v>
+        <v>1097.031033584466</v>
       </c>
       <c r="O6" t="n">
-        <v>1319.294480749977</v>
+        <v>1319.294480749985</v>
       </c>
       <c r="P6" t="n">
-        <v>1478.347425948665</v>
+        <v>1478.347425948673</v>
       </c>
       <c r="Q6" t="n">
-        <v>1534.750911261719</v>
+        <v>1534.750911261729</v>
       </c>
       <c r="R6" t="n">
-        <v>1530.346686757968</v>
+        <v>1530.346686757977</v>
       </c>
       <c r="S6" t="n">
-        <v>1530.346686757968</v>
+        <v>1385.878273152072</v>
       </c>
       <c r="T6" t="n">
-        <v>1530.346686757968</v>
+        <v>1189.973630703756</v>
       </c>
       <c r="U6" t="n">
-        <v>1302.225603078572</v>
+        <v>1045.026434350639</v>
       </c>
       <c r="V6" t="n">
-        <v>1302.225603078572</v>
+        <v>1045.026434350639</v>
       </c>
       <c r="W6" t="n">
-        <v>1047.98824635037</v>
+        <v>790.7890776224378</v>
       </c>
       <c r="X6" t="n">
-        <v>1004.78706864845</v>
+        <v>790.7890776224378</v>
       </c>
       <c r="Y6" t="n">
-        <v>797.0267698834965</v>
+        <v>790.7890776224378</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>199.6312011531413</v>
+        <v>182.7361385594324</v>
       </c>
       <c r="C7" t="n">
-        <v>30.69501822523438</v>
+        <v>182.7361385594324</v>
       </c>
       <c r="D7" t="n">
-        <v>30.69501822523438</v>
+        <v>32.61949914709663</v>
       </c>
       <c r="E7" t="n">
-        <v>30.69501822523438</v>
+        <v>32.61949914709663</v>
       </c>
       <c r="F7" t="n">
-        <v>30.69501822523438</v>
+        <v>32.61949914709663</v>
       </c>
       <c r="G7" t="n">
-        <v>30.69501822523438</v>
+        <v>32.61949914709663</v>
       </c>
       <c r="H7" t="n">
-        <v>30.69501822523438</v>
+        <v>32.61949914709663</v>
       </c>
       <c r="I7" t="n">
-        <v>30.69501822523438</v>
+        <v>32.61949914709663</v>
       </c>
       <c r="J7" t="n">
-        <v>30.69501822523438</v>
+        <v>30.69501822523457</v>
       </c>
       <c r="K7" t="n">
-        <v>157.4322756223264</v>
+        <v>157.432275622327</v>
       </c>
       <c r="L7" t="n">
-        <v>375.1387655830383</v>
+        <v>375.1387655830395</v>
       </c>
       <c r="M7" t="n">
-        <v>615.0688576388144</v>
+        <v>615.0688576388161</v>
       </c>
       <c r="N7" t="n">
-        <v>854.7285647974813</v>
+        <v>854.7285647974836</v>
       </c>
       <c r="O7" t="n">
-        <v>1060.07679889167</v>
+        <v>1060.076798891673</v>
       </c>
       <c r="P7" t="n">
-        <v>1212.26700593402</v>
+        <v>1212.267005934023</v>
       </c>
       <c r="Q7" t="n">
-        <v>1234.200536495182</v>
+        <v>1234.200536495186</v>
       </c>
       <c r="R7" t="n">
-        <v>1113.866490402739</v>
+        <v>1234.200536495186</v>
       </c>
       <c r="S7" t="n">
-        <v>910.3578444371283</v>
+        <v>1133.151519755975</v>
       </c>
       <c r="T7" t="n">
-        <v>910.3578444371283</v>
+        <v>908.4862616325196</v>
       </c>
       <c r="U7" t="n">
-        <v>910.3578444371283</v>
+        <v>908.4862616325196</v>
       </c>
       <c r="V7" t="n">
-        <v>709.840950333632</v>
+        <v>653.8017734266327</v>
       </c>
       <c r="W7" t="n">
-        <v>420.4237802966714</v>
+        <v>364.3846033896721</v>
       </c>
       <c r="X7" t="n">
-        <v>420.4237802966714</v>
+        <v>364.3846033896721</v>
       </c>
       <c r="Y7" t="n">
-        <v>199.6312011531413</v>
+        <v>364.3846033896721</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1363.669246337128</v>
+        <v>1236.203140240072</v>
       </c>
       <c r="C8" t="n">
-        <v>994.7067293967168</v>
+        <v>1236.203140240072</v>
       </c>
       <c r="D8" t="n">
-        <v>636.4410307899664</v>
+        <v>877.9374416333219</v>
       </c>
       <c r="E8" t="n">
-        <v>540.2706867570294</v>
+        <v>877.9374416333219</v>
       </c>
       <c r="F8" t="n">
-        <v>129.2847819674218</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="G8" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H8" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
         <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872917</v>
+        <v>795.7553530872913</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
@@ -4829,25 +4829,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926625</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>2437.640120926625</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U8" t="n">
-        <v>2437.640120926625</v>
+        <v>2308.758267664335</v>
       </c>
       <c r="V8" t="n">
-        <v>2106.577233583054</v>
+        <v>1977.695380320764</v>
       </c>
       <c r="W8" t="n">
-        <v>1753.80857831294</v>
+        <v>1977.695380320764</v>
       </c>
       <c r="X8" t="n">
-        <v>1753.80857831294</v>
+        <v>1604.229622059685</v>
       </c>
       <c r="Y8" t="n">
-        <v>1363.669246337128</v>
+        <v>1236.203140240072</v>
       </c>
     </row>
     <row r="9">
@@ -4857,49 +4857,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E9" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F9" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G9" t="n">
-        <v>165.4432786182524</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
         <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500113</v>
+        <v>168.0008189145204</v>
       </c>
       <c r="K9" t="n">
-        <v>298.3188265310613</v>
+        <v>614.5430248380231</v>
       </c>
       <c r="L9" t="n">
-        <v>846.3061319081667</v>
+        <v>909.2465818694948</v>
       </c>
       <c r="M9" t="n">
-        <v>1480.485115687205</v>
+        <v>1272.508600828715</v>
       </c>
       <c r="N9" t="n">
-        <v>1867.77024428415</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O9" t="n">
-        <v>2199.840679460312</v>
+        <v>1991.864164601822</v>
       </c>
       <c r="P9" t="n">
-        <v>2447.023413292609</v>
+        <v>2239.046898434119</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.339328400155</v>
@@ -4914,16 +4914,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>453.7539249574967</v>
+        <v>789.6534264926422</v>
       </c>
       <c r="C10" t="n">
-        <v>453.7539249574967</v>
+        <v>620.7172435647353</v>
       </c>
       <c r="D10" t="n">
-        <v>453.7539249574967</v>
+        <v>620.7172435647353</v>
       </c>
       <c r="E10" t="n">
-        <v>305.8408313751036</v>
+        <v>620.7172435647353</v>
       </c>
       <c r="F10" t="n">
-        <v>305.8408313751036</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="G10" t="n">
         <v>305.8408313751036</v>
@@ -4957,10 +4957,10 @@
         <v>157.1019332386098</v>
       </c>
       <c r="I10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K10" t="n">
         <v>248.4064713020475</v>
@@ -4984,28 +4984,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1630.472079733866</v>
+        <v>1556.434732999956</v>
       </c>
       <c r="S10" t="n">
-        <v>1630.472079733866</v>
+        <v>1556.434732999956</v>
       </c>
       <c r="T10" t="n">
-        <v>1407.493598928601</v>
+        <v>1333.456252194691</v>
       </c>
       <c r="U10" t="n">
-        <v>1407.493598928601</v>
+        <v>1044.337914698529</v>
       </c>
       <c r="V10" t="n">
-        <v>1152.809110722714</v>
+        <v>789.6534264926422</v>
       </c>
       <c r="W10" t="n">
-        <v>863.3919406857538</v>
+        <v>789.6534264926422</v>
       </c>
       <c r="X10" t="n">
-        <v>635.4023897877364</v>
+        <v>789.6534264926422</v>
       </c>
       <c r="Y10" t="n">
-        <v>635.4023897877364</v>
+        <v>789.6534264926422</v>
       </c>
     </row>
     <row r="11">
@@ -5015,40 +5015,40 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2016.155803409788</v>
+        <v>2333.452899754456</v>
       </c>
       <c r="C11" t="n">
-        <v>1647.193286469377</v>
+        <v>1964.490382814044</v>
       </c>
       <c r="D11" t="n">
-        <v>1288.927587862627</v>
+        <v>1606.224684207293</v>
       </c>
       <c r="E11" t="n">
-        <v>903.1393352643827</v>
+        <v>1220.436431609049</v>
       </c>
       <c r="F11" t="n">
-        <v>492.1534304747752</v>
+        <v>809.4505268194416</v>
       </c>
       <c r="G11" t="n">
-        <v>77.53766591592074</v>
+        <v>394.8347622605872</v>
       </c>
       <c r="H11" t="n">
-        <v>77.53766591592074</v>
+        <v>101.9281932309158</v>
       </c>
       <c r="I11" t="n">
         <v>77.53766591592074</v>
       </c>
       <c r="J11" t="n">
-        <v>304.4060796706893</v>
+        <v>304.4060796706899</v>
       </c>
       <c r="K11" t="n">
-        <v>695.1615405656962</v>
+        <v>695.1615405656969</v>
       </c>
       <c r="L11" t="n">
-        <v>1216.83000462533</v>
+        <v>1216.830004625331</v>
       </c>
       <c r="M11" t="n">
-        <v>1828.956123087831</v>
+        <v>1828.956123087832</v>
       </c>
       <c r="N11" t="n">
         <v>2455.600890484043</v>
@@ -5066,25 +5066,25 @@
         <v>3876.883295796037</v>
       </c>
       <c r="S11" t="n">
-        <v>3776.999350345378</v>
+        <v>3876.883295796037</v>
       </c>
       <c r="T11" t="n">
-        <v>3573.020743926743</v>
+        <v>3672.904689377402</v>
       </c>
       <c r="U11" t="n">
-        <v>3319.526802048272</v>
+        <v>3672.904689377402</v>
       </c>
       <c r="V11" t="n">
-        <v>2988.463914704701</v>
+        <v>3341.841802033831</v>
       </c>
       <c r="W11" t="n">
-        <v>2635.695259434587</v>
+        <v>2989.073146763717</v>
       </c>
       <c r="X11" t="n">
-        <v>2406.2951353856</v>
+        <v>2720.052739818578</v>
       </c>
       <c r="Y11" t="n">
-        <v>2016.155803409788</v>
+        <v>2720.052739818578</v>
       </c>
     </row>
     <row r="12">
@@ -5112,34 +5112,34 @@
         <v>176.2740910406009</v>
       </c>
       <c r="H12" t="n">
-        <v>88.13208718390848</v>
+        <v>88.1320871839085</v>
       </c>
       <c r="I12" t="n">
         <v>77.53766591592074</v>
       </c>
       <c r="J12" t="n">
-        <v>193.8410919870414</v>
+        <v>193.8410919870413</v>
       </c>
       <c r="K12" t="n">
-        <v>193.8410919870414</v>
+        <v>470.7769964046656</v>
       </c>
       <c r="L12" t="n">
-        <v>612.5381326449931</v>
+        <v>889.4740370626173</v>
       </c>
       <c r="M12" t="n">
-        <v>1120.494698601522</v>
+        <v>1397.430603019146</v>
       </c>
       <c r="N12" t="n">
-        <v>1532.266717861144</v>
+        <v>1933.239912720356</v>
       </c>
       <c r="O12" t="n">
-        <v>2000.207762193667</v>
+        <v>2014.935408783255</v>
       </c>
       <c r="P12" t="n">
-        <v>2356.438638438442</v>
+        <v>2371.16628502803</v>
       </c>
       <c r="Q12" t="n">
-        <v>2544.650348868987</v>
+        <v>2559.377995458575</v>
       </c>
       <c r="R12" t="n">
         <v>2559.377995458575</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>855.3742724444187</v>
+        <v>392.9487426871256</v>
       </c>
       <c r="C13" t="n">
-        <v>686.4380895165118</v>
+        <v>392.9487426871256</v>
       </c>
       <c r="D13" t="n">
-        <v>536.3214501041761</v>
+        <v>392.9487426871256</v>
       </c>
       <c r="E13" t="n">
-        <v>536.3214501041761</v>
+        <v>245.0356491047325</v>
       </c>
       <c r="F13" t="n">
-        <v>389.4315026062657</v>
+        <v>245.0356491047325</v>
       </c>
       <c r="G13" t="n">
-        <v>221.933519417454</v>
+        <v>77.53766591592074</v>
       </c>
       <c r="H13" t="n">
         <v>77.53766591592074</v>
@@ -5197,52 +5197,52 @@
         <v>77.53766591592074</v>
       </c>
       <c r="J13" t="n">
-        <v>136.8552218758649</v>
+        <v>136.8552218758648</v>
       </c>
       <c r="K13" t="n">
-        <v>364.1690246648146</v>
+        <v>364.1690246648145</v>
       </c>
       <c r="L13" t="n">
-        <v>710.5788654344814</v>
+        <v>710.578865434481</v>
       </c>
       <c r="M13" t="n">
-        <v>1086.20859537694</v>
+        <v>1086.208595376939</v>
       </c>
       <c r="N13" t="n">
         <v>1458.341306336948</v>
       </c>
       <c r="O13" t="n">
-        <v>1786.049800818666</v>
+        <v>1786.049800818665</v>
       </c>
       <c r="P13" t="n">
-        <v>2042.940349010723</v>
+        <v>2042.940349010722</v>
       </c>
       <c r="Q13" t="n">
-        <v>2137.362968742809</v>
+        <v>2137.362968742808</v>
       </c>
       <c r="R13" t="n">
-        <v>2137.362968742809</v>
+        <v>2137.362968742808</v>
       </c>
       <c r="S13" t="n">
-        <v>2137.362968742809</v>
+        <v>1949.247121276104</v>
       </c>
       <c r="T13" t="n">
-        <v>1916.471636177249</v>
+        <v>1728.355788710545</v>
       </c>
       <c r="U13" t="n">
-        <v>1627.3799431267</v>
+        <v>1439.264095659995</v>
       </c>
       <c r="V13" t="n">
-        <v>1547.232486455149</v>
+        <v>1184.579607454108</v>
       </c>
       <c r="W13" t="n">
-        <v>1257.815316418189</v>
+        <v>895.1624374171477</v>
       </c>
       <c r="X13" t="n">
-        <v>1257.815316418189</v>
+        <v>667.1728865191305</v>
       </c>
       <c r="Y13" t="n">
-        <v>1037.022737274658</v>
+        <v>574.5972075173653</v>
       </c>
     </row>
     <row r="14">
@@ -5270,28 +5270,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5303,25 +5303,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>184.7035232280593</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>184.7035232280593</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L15" t="n">
-        <v>680.0291294438179</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M15" t="n">
-        <v>680.0291294438179</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N15" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1016.580456911442</v>
+        <v>874.8686257536382</v>
       </c>
       <c r="C16" t="n">
-        <v>847.6442739835353</v>
+        <v>705.9324428257313</v>
       </c>
       <c r="D16" t="n">
-        <v>697.5276345711995</v>
+        <v>555.8158034133955</v>
       </c>
       <c r="E16" t="n">
-        <v>549.6145409888063</v>
+        <v>407.9027098310025</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908959</v>
+        <v>261.0127623330923</v>
       </c>
       <c r="G16" t="n">
-        <v>235.528494205776</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782954</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038339</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L16" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235164</v>
+        <v>2337.284991357604</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258105</v>
+        <v>2117.683526380545</v>
       </c>
       <c r="U16" t="n">
-        <v>1970.320130882547</v>
+        <v>1828.608299724743</v>
       </c>
       <c r="V16" t="n">
-        <v>1715.63564267666</v>
+        <v>1573.923811518856</v>
       </c>
       <c r="W16" t="n">
-        <v>1426.218472639699</v>
+        <v>1284.506641481895</v>
       </c>
       <c r="X16" t="n">
-        <v>1198.228921741682</v>
+        <v>1056.517090583878</v>
       </c>
       <c r="Y16" t="n">
-        <v>1198.228921741682</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5489,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
         <v>1948.813509611463</v>
@@ -5507,25 +5507,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
         <v>3640.422291068009</v>
@@ -5540,25 +5540,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>245.2306927803937</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>740.5562989961525</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M18" t="n">
-        <v>740.5562989961525</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N18" t="n">
-        <v>1368.154262550759</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>658.9255961109956</v>
+        <v>1090.767110287002</v>
       </c>
       <c r="C19" t="n">
-        <v>489.9894131830887</v>
+        <v>921.8309273590946</v>
       </c>
       <c r="D19" t="n">
-        <v>489.9894131830887</v>
+        <v>771.7142879467589</v>
       </c>
       <c r="E19" t="n">
-        <v>489.9894131830887</v>
+        <v>623.8011943643658</v>
       </c>
       <c r="F19" t="n">
-        <v>343.0994656851784</v>
+        <v>476.9112468664554</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000582</v>
+        <v>309.7151475813353</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>168.0033164235334</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038327</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797728</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910807</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570816</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580259</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832661</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487565</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510507</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1833.45784922563</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="V19" t="n">
-        <v>1578.773361019743</v>
+        <v>1789.822296052219</v>
       </c>
       <c r="W19" t="n">
-        <v>1289.356190982783</v>
+        <v>1500.405126015258</v>
       </c>
       <c r="X19" t="n">
-        <v>1061.366640084765</v>
+        <v>1272.415575117241</v>
       </c>
       <c r="Y19" t="n">
-        <v>840.5740609412353</v>
+        <v>1272.415575117241</v>
       </c>
     </row>
     <row r="20">
@@ -5744,22 +5744,22 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111704</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
         <v>2950.898526355937</v>
@@ -5768,7 +5768,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852256</v>
@@ -5832,22 +5832,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>738.7889117913853</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1336.167399417937</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N21" t="n">
-        <v>1767.889897446606</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>555.8158034133955</v>
+        <v>849.3843576263197</v>
       </c>
       <c r="C22" t="n">
-        <v>555.8158034133954</v>
+        <v>680.448174698413</v>
       </c>
       <c r="D22" t="n">
-        <v>555.8158034133954</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E22" t="n">
-        <v>407.9027098310023</v>
+        <v>382.4184417036841</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5911,49 +5911,49 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2312.991837396757</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>2312.991837396757</v>
       </c>
       <c r="U22" t="n">
-        <v>1730.34805652803</v>
+        <v>2023.916610740954</v>
       </c>
       <c r="V22" t="n">
-        <v>1475.663568322143</v>
+        <v>1769.232122535067</v>
       </c>
       <c r="W22" t="n">
-        <v>1186.246398285183</v>
+        <v>1479.814952498107</v>
       </c>
       <c r="X22" t="n">
-        <v>958.2568473871654</v>
+        <v>1251.825401600089</v>
       </c>
       <c r="Y22" t="n">
-        <v>737.4642682436353</v>
+        <v>1031.032822456559</v>
       </c>
     </row>
     <row r="23">
@@ -5972,28 +5972,28 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192457</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111711</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075804</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
         <v>2206.558663014778</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>448.1846595309963</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>943.510265746755</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1540.888753373307</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1540.888753373307</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>2092.798483612594</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2530.951795518647</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400714</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C25" t="n">
-        <v>513.8536007400714</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D25" t="n">
-        <v>363.7369613277357</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E25" t="n">
-        <v>215.8238677453425</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F25" t="n">
-        <v>215.8238677453425</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G25" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2411.578601136831</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2228.723766791735</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2009.122301814677</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1720.047075158874</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1465.362586952987</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1465.362586952987</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1237.37303605497</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703112</v>
+        <v>1016.58045691144</v>
       </c>
     </row>
     <row r="26">
@@ -6221,13 +6221,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6236,13 +6236,13 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
         <v>4562.265728852255</v>
@@ -6263,10 +6263,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6303,19 +6303,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>923.0670414349511</v>
+        <v>1058.183521551621</v>
       </c>
       <c r="M27" t="n">
-        <v>1520.445529061503</v>
+        <v>1655.562009178173</v>
       </c>
       <c r="N27" t="n">
-        <v>1731.250242493492</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O27" t="n">
         <v>2283.159972732779</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>948.5505208511905</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270442</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000575</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6385,49 +6385,49 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038346</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832662</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>1272.7575184984</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>1051.96493935487</v>
       </c>
     </row>
     <row r="29">
@@ -6458,13 +6458,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O30" t="n">
-        <v>2299.457522348532</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P30" t="n">
-        <v>2299.457522348532</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2532.719182723414</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,10 +6595,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1098.667160263526</v>
+        <v>948.5505208511909</v>
       </c>
       <c r="C31" t="n">
-        <v>929.7309773356194</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="D31" t="n">
         <v>779.6143379232836</v>
@@ -6613,7 +6613,7 @@
         <v>317.6151975578601</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6622,10 +6622,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>2197.062545487567</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>1907.987318831765</v>
+        <v>1833.665603928865</v>
       </c>
       <c r="V31" t="n">
-        <v>1653.302830625878</v>
+        <v>1578.981115722978</v>
       </c>
       <c r="W31" t="n">
-        <v>1363.885660588917</v>
+        <v>1578.981115722978</v>
       </c>
       <c r="X31" t="n">
-        <v>1363.885660588917</v>
+        <v>1350.991564824961</v>
       </c>
       <c r="Y31" t="n">
-        <v>1143.093081445387</v>
+        <v>1130.19898568143</v>
       </c>
     </row>
     <row r="32">
@@ -6692,25 +6692,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6725,25 +6725,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
         <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6771,10 +6771,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
         <v>243.4633055756266</v>
@@ -6783,22 +6783,22 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>1058.183521551621</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1655.562009178173</v>
       </c>
       <c r="N33" t="n">
-        <v>2297.690135143765</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O33" t="n">
-        <v>2297.690135143765</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>948.5505208511905</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>779.6143379232836</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>779.6143379232836</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270442</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782955</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
@@ -6886,22 +6886,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>2123.082773965825</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1868.398285759938</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1578.981115722978</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1350.99156482496</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>1130.19898568143</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6917,10 +6917,10 @@
         <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
         <v>793.7736536168611</v>
@@ -6947,7 +6947,7 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6956,7 +6956,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -7026,16 +7026,16 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1859.536823237711</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>961.4446166151479</v>
+        <v>513.853600740071</v>
       </c>
       <c r="C37" t="n">
-        <v>792.508433687241</v>
+        <v>344.9174178121641</v>
       </c>
       <c r="D37" t="n">
-        <v>642.3917942749052</v>
+        <v>344.9174178121641</v>
       </c>
       <c r="E37" t="n">
-        <v>494.4787006925121</v>
+        <v>344.9174178121641</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429801</v>
+        <v>344.9174178121641</v>
       </c>
       <c r="G37" t="n">
-        <v>317.61519755786</v>
+        <v>177.7213185270441</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782955</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
@@ -7117,28 +7117,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S37" t="n">
         <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1363.885660588918</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1363.885660588918</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y37" t="n">
-        <v>1143.093081445387</v>
+        <v>695.5020655703107</v>
       </c>
     </row>
     <row r="38">
@@ -7169,28 +7169,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
         <v>4562.265728852255</v>
@@ -7205,16 +7205,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7251,25 +7251,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>119.290296770379</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>733.4550657171301</v>
+        <v>513.8536007400704</v>
       </c>
       <c r="C40" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121635</v>
       </c>
       <c r="D40" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121635</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121635</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429801</v>
+        <v>344.9174178121635</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270435</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7333,10 +7333,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
@@ -7348,34 +7348,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q40" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T40" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U40" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V40" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W40" t="n">
-        <v>1363.885660588917</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1135.8961096909</v>
+        <v>916.2946447138403</v>
       </c>
       <c r="Y40" t="n">
-        <v>915.1035305473698</v>
+        <v>695.5020655703102</v>
       </c>
     </row>
     <row r="41">
@@ -7412,16 +7412,16 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7445,13 +7445,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7485,28 +7485,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1074.481071167373</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1702.079034721979</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>2253.988764961266</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>802.9288273958739</v>
+        <v>513.8536007400716</v>
       </c>
       <c r="C43" t="n">
-        <v>802.9288273958739</v>
+        <v>344.9174178121647</v>
       </c>
       <c r="D43" t="n">
-        <v>652.8121879835381</v>
+        <v>344.9174178121647</v>
       </c>
       <c r="E43" t="n">
-        <v>504.899094401145</v>
+        <v>344.9174178121647</v>
       </c>
       <c r="F43" t="n">
-        <v>358.0091469032347</v>
+        <v>344.9174178121647</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270446</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7573,7 +7573,7 @@
         <v>435.7419440038342</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
@@ -7597,22 +7597,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1977.461080510509</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1722.776592304622</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1433.359422267661</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>1205.369871369644</v>
+        <v>916.2946447138414</v>
       </c>
       <c r="Y43" t="n">
-        <v>984.5772922261136</v>
+        <v>695.5020655703113</v>
       </c>
     </row>
     <row r="44">
@@ -7628,7 +7628,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
         <v>1204.759558406469</v>
@@ -7643,22 +7643,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7673,10 +7673,10 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U44" t="n">
         <v>4151.812499466573</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>579.1554649516142</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>734.6461798836011</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>565.7099969556942</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>565.7099969556944</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>417.7969033733011</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
         <v>235.5284942057738</v>
@@ -7807,10 +7807,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
@@ -7834,7 +7834,7 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
         <v>1688.385853854706</v>
@@ -7846,10 +7846,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138409</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>916.2946447138409</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8000,7 +8000,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.51967546761153</v>
+        <v>60.51967546761156</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>2.051220519418266</v>
+        <v>2.051220519418294</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>97.32166909127284</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8073,7 +8073,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>97.32166909127238</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -8237,7 +8237,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>34.43939438637037</v>
+        <v>34.43939438636983</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8295,13 +8295,13 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>231.6378772658576</v>
       </c>
       <c r="L6" t="n">
-        <v>96.7620289158246</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>134.8758483500304</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -8529,16 +8529,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>54.95314511566572</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>255.8421700460947</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>273.6534998179982</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -8550,7 +8550,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>20.93778120154991</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23273,10 +23273,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>289.9775033393747</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>24.14662204184551</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,13 +23306,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>98.88510599615211</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.959002459687</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23321,10 +23321,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>142.6249778699726</v>
+        <v>103.4008978027813</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23416,22 +23416,22 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.9518949665179</v>
       </c>
       <c r="I13" t="n">
         <v>90.25352389927373</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>79.81330679905236</v>
+        <v>79.81330679905237</v>
       </c>
       <c r="S13" t="n">
-        <v>186.2346889920369</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23473,16 +23473,16 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>172.7916612189925</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>126.9347311403472</v>
       </c>
     </row>
     <row r="14">
@@ -23668,10 +23668,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,16 +23698,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>138.8202214113357</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>212.7396875474409</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23893,10 +23893,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23905,10 +23905,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>7.821049476759612</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23944,7 +23944,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>143.6212754172162</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24127,10 +24127,10 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24139,13 +24139,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,13 +24175,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>114.7699989900974</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>41.54258064659041</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24361,10 +24361,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24373,16 +24373,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>126.0028419604374</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>31.34460909112683</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24424,7 +24424,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>77.45170586329472</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24607,16 +24607,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>138.494940240507</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24661,7 +24661,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24835,13 +24835,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>135.8503182118951</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24883,25 +24883,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>77.45170586329573</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25081,19 +25081,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>57.22910392194233</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25126,10 +25126,10 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>212.9445005827201</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25315,22 +25315,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>135.8503182118949</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>57.22910392194236</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25363,7 +25363,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25375,7 +25375,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25549,7 +25549,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>66.51053793615068</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25558,16 +25558,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>57.22910392194304</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25600,7 +25600,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25786,25 +25786,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>125.5341284403481</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>57.22910392194187</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25840,7 +25840,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26029,13 +26029,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>130.499461239348</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -26089,7 +26089,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26314,22 +26314,22 @@
         <v>348942.7521923204</v>
       </c>
       <c r="C2" t="n">
+        <v>348942.7521923202</v>
+      </c>
+      <c r="D2" t="n">
         <v>348942.7521923205</v>
       </c>
-      <c r="D2" t="n">
-        <v>348942.7521923204</v>
-      </c>
       <c r="E2" t="n">
-        <v>311350.4288166188</v>
+        <v>311350.4288166185</v>
       </c>
       <c r="F2" t="n">
-        <v>343037.3048682527</v>
+        <v>343037.3048682528</v>
       </c>
       <c r="G2" t="n">
-        <v>343037.3048682525</v>
+        <v>343037.3048682528</v>
       </c>
       <c r="H2" t="n">
-        <v>343037.3048682526</v>
+        <v>343037.3048682528</v>
       </c>
       <c r="I2" t="n">
         <v>343037.3048682527</v>
@@ -26338,22 +26338,22 @@
         <v>343037.3048682527</v>
       </c>
       <c r="K2" t="n">
+        <v>343037.3048682528</v>
+      </c>
+      <c r="L2" t="n">
         <v>343037.3048682527</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>343037.3048682526</v>
       </c>
-      <c r="M2" t="n">
-        <v>343037.3048682528</v>
-      </c>
       <c r="N2" t="n">
-        <v>343037.3048682528</v>
+        <v>343037.3048682526</v>
       </c>
       <c r="O2" t="n">
-        <v>343037.3048682528</v>
+        <v>343037.3048682526</v>
       </c>
       <c r="P2" t="n">
-        <v>343037.3048682527</v>
+        <v>343037.3048682526</v>
       </c>
     </row>
     <row r="3">
@@ -26363,25 +26363,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>680087.9805911931</v>
+        <v>680087.9805911928</v>
       </c>
       <c r="C3" t="n">
-        <v>132804.2190657056</v>
+        <v>132804.2190657084</v>
       </c>
       <c r="D3" t="n">
-        <v>265413.0723929389</v>
+        <v>265413.0723929364</v>
       </c>
       <c r="E3" t="n">
-        <v>313577.1573545779</v>
+        <v>313577.1573545776</v>
       </c>
       <c r="F3" t="n">
-        <v>189308.2687704283</v>
+        <v>189308.2687704288</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26390,16 +26390,16 @@
         <v>68999.15441911407</v>
       </c>
       <c r="K3" t="n">
-        <v>30877.42926417389</v>
+        <v>30877.42926417451</v>
       </c>
       <c r="L3" t="n">
-        <v>65018.34502049592</v>
+        <v>65018.3450204954</v>
       </c>
       <c r="M3" t="n">
-        <v>81897.40371273085</v>
+        <v>81897.40371273077</v>
       </c>
       <c r="N3" t="n">
-        <v>49839.57413202358</v>
+        <v>49839.57413202363</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26418,46 +26418,46 @@
         <v>248543.2666865468</v>
       </c>
       <c r="C4" t="n">
-        <v>212545.7959513243</v>
+        <v>212545.7959513236</v>
       </c>
       <c r="D4" t="n">
         <v>136726.2736921025</v>
       </c>
       <c r="E4" t="n">
-        <v>9231.781797110052</v>
+        <v>9231.78179711005</v>
       </c>
       <c r="F4" t="n">
-        <v>9337.200356756606</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="G4" t="n">
-        <v>9337.20035675661</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="H4" t="n">
+        <v>9337.200356756584</v>
+      </c>
+      <c r="I4" t="n">
         <v>9337.200356756592</v>
       </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
+        <v>9337.200356756592</v>
+      </c>
+      <c r="K4" t="n">
+        <v>9337.200356756603</v>
+      </c>
+      <c r="L4" t="n">
+        <v>9337.200356756592</v>
+      </c>
+      <c r="M4" t="n">
+        <v>9337.200356756632</v>
+      </c>
+      <c r="N4" t="n">
         <v>9337.20035675659</v>
       </c>
-      <c r="J4" t="n">
-        <v>9337.200356756603</v>
-      </c>
-      <c r="K4" t="n">
-        <v>9337.200356756592</v>
-      </c>
-      <c r="L4" t="n">
-        <v>9337.200356756632</v>
-      </c>
-      <c r="M4" t="n">
-        <v>9337.200356756653</v>
-      </c>
-      <c r="N4" t="n">
-        <v>9337.200356756628</v>
-      </c>
       <c r="O4" t="n">
-        <v>9337.200356756575</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="P4" t="n">
-        <v>9337.200356756608</v>
+        <v>9337.20035675659</v>
       </c>
     </row>
     <row r="5">
@@ -26470,7 +26470,7 @@
         <v>63047.80320426619</v>
       </c>
       <c r="C5" t="n">
-        <v>72593.65038667482</v>
+        <v>72593.65038667503</v>
       </c>
       <c r="D5" t="n">
         <v>92937.7724398447</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-642736.2982896857</v>
+        <v>-642736.2982896854</v>
       </c>
       <c r="C6" t="n">
-        <v>-69000.91321138424</v>
+        <v>-69000.9132113868</v>
       </c>
       <c r="D6" t="n">
-        <v>-146134.3663325658</v>
+        <v>-146134.3663325632</v>
       </c>
       <c r="E6" t="n">
-        <v>-96595.99540245478</v>
+        <v>-96817.12671642956</v>
       </c>
       <c r="F6" t="n">
-        <v>43269.30591716076</v>
+        <v>43234.56799172453</v>
       </c>
       <c r="G6" t="n">
-        <v>232577.5746875886</v>
+        <v>232542.8367621536</v>
       </c>
       <c r="H6" t="n">
-        <v>232577.5746875889</v>
+        <v>232542.8367621532</v>
       </c>
       <c r="I6" t="n">
-        <v>232577.574687589</v>
+        <v>232542.8367621535</v>
       </c>
       <c r="J6" t="n">
-        <v>163578.4202684748</v>
+        <v>163543.6823430393</v>
       </c>
       <c r="K6" t="n">
-        <v>201700.1454234151</v>
+        <v>201665.4074979788</v>
       </c>
       <c r="L6" t="n">
-        <v>167559.2296670929</v>
+        <v>167524.4917416579</v>
       </c>
       <c r="M6" t="n">
-        <v>150680.1709748582</v>
+        <v>150645.4330494224</v>
       </c>
       <c r="N6" t="n">
-        <v>182738.0005555655</v>
+        <v>182703.2626301296</v>
       </c>
       <c r="O6" t="n">
-        <v>232577.5746875891</v>
+        <v>232542.8367621532</v>
       </c>
       <c r="P6" t="n">
-        <v>232577.574687589</v>
+        <v>232542.8367621532</v>
       </c>
     </row>
   </sheetData>
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694783</v>
+        <v>614.0550137694781</v>
       </c>
       <c r="C3" t="n">
-        <v>717.3319511695737</v>
+        <v>717.3319511695757</v>
       </c>
       <c r="D3" t="n">
         <v>934.0648921175391</v>
@@ -26790,10 +26790,10 @@
         <v>263.7138800015061</v>
       </c>
       <c r="C4" t="n">
-        <v>383.6877278154298</v>
+        <v>383.6877278154321</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
         <v>969.2208239490093</v>
@@ -26957,25 +26957,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694783</v>
+        <v>614.0550137694781</v>
       </c>
       <c r="C3" t="n">
-        <v>103.2769374000954</v>
+        <v>103.2769374000976</v>
       </c>
       <c r="D3" t="n">
-        <v>216.7329409479654</v>
+        <v>216.7329409479634</v>
       </c>
       <c r="E3" t="n">
-        <v>268.1763450974117</v>
+        <v>268.1763450974115</v>
       </c>
       <c r="F3" t="n">
-        <v>165.7342631267227</v>
+        <v>165.7342631267234</v>
       </c>
       <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27012,16 +27012,16 @@
         <v>263.7138800015061</v>
       </c>
       <c r="C4" t="n">
-        <v>119.9738478139236</v>
+        <v>119.973847813926</v>
       </c>
       <c r="D4" t="n">
-        <v>256.897104284609</v>
+        <v>256.8971042846067</v>
       </c>
       <c r="E4" t="n">
-        <v>328.6359918489705</v>
+        <v>328.6359918489704</v>
       </c>
       <c r="F4" t="n">
-        <v>203.4874641506389</v>
+        <v>203.4874641506391</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27036,16 +27036,16 @@
         <v>263.7138800015061</v>
       </c>
       <c r="K4" t="n">
-        <v>119.9738478139236</v>
+        <v>119.973847813926</v>
       </c>
       <c r="L4" t="n">
-        <v>256.8971042846088</v>
+        <v>256.8971042846067</v>
       </c>
       <c r="M4" t="n">
-        <v>328.6359918489705</v>
+        <v>328.6359918489702</v>
       </c>
       <c r="N4" t="n">
-        <v>203.4874641506391</v>
+        <v>203.4874641506393</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27258,16 +27258,16 @@
         <v>263.7138800015061</v>
       </c>
       <c r="K4" t="n">
-        <v>119.9738478139236</v>
+        <v>119.973847813926</v>
       </c>
       <c r="L4" t="n">
-        <v>256.897104284609</v>
+        <v>256.8971042846067</v>
       </c>
       <c r="M4" t="n">
-        <v>328.6359918489705</v>
+        <v>328.6359918489704</v>
       </c>
       <c r="N4" t="n">
-        <v>203.4874641506389</v>
+        <v>203.4874641506391</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27382,22 +27382,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>95.05034484910823</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>118.2164900707556</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>174.596860236385</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>149.1202946442039</v>
       </c>
       <c r="H2" t="n">
-        <v>314.193632629268</v>
+        <v>50.47975262776185</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,10 +27427,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U2" t="n">
         <v>251.1481678782825</v>
@@ -27445,7 +27445,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>122.5240586545474</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27455,7 +27455,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>57.4408281652936</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27464,19 +27464,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
-        <v>99.47932027120976</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>43.9218040015056</v>
+        <v>43.92180400150561</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,22 +27503,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.15252495527768</v>
+        <v>18.1525249552777</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T3" t="n">
         <v>194.8409875848768</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V3" t="n">
-        <v>36.1846155234567</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -27537,13 +27537,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>38.81680403590921</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27552,13 +27552,13 @@
         <v>166.8836670385466</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>152.3821593358568</v>
       </c>
       <c r="I4" t="n">
-        <v>122.1505735248085</v>
+        <v>122.1505735248086</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888209</v>
+        <v>15.07219909888211</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27585,10 +27585,10 @@
         <v>127.5046028836639</v>
       </c>
       <c r="S4" t="n">
-        <v>177.1973078188216</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
         <v>286.2586305026775</v>
@@ -27603,7 +27603,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>293.5767630291049</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>19.35805664824665</v>
       </c>
       <c r="F5" t="n">
-        <v>23.18831792628168</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>309.9416328899766</v>
+        <v>309.9416328899765</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>99.30025118863676</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>143.3066953660376</v>
+        <v>143.3066953660374</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>210.4722490968155</v>
       </c>
       <c r="U5" t="n">
         <v>251.1149531848473</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>2.550210840623834</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27692,10 +27692,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -27710,10 +27710,10 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>97.33388804333229</v>
+        <v>97.33388804333225</v>
       </c>
       <c r="I6" t="n">
-        <v>36.2734647695174</v>
+        <v>36.27346476951724</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27743,13 +27743,13 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>143.0237294698459</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>193.9455960238326</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>82.34214845301588</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -27758,10 +27758,10 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>163.0038192785769</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27771,13 +27771,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27789,13 +27789,13 @@
         <v>166.6974299383169</v>
       </c>
       <c r="H7" t="n">
-        <v>150.7263422083602</v>
+        <v>150.7263422083601</v>
       </c>
       <c r="I7" t="n">
-        <v>116.5499160015378</v>
+        <v>116.5499160015377</v>
       </c>
       <c r="J7" t="n">
-        <v>1.905236112643692</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,19 +27819,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>119.1307056315183</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>101.4350329341359</v>
       </c>
       <c r="T7" t="n">
-        <v>222.4186055422209</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2484721153922</v>
       </c>
       <c r="V7" t="n">
-        <v>53.62591816136671</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27840,7 +27840,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27853,25 +27853,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>286.7217294796541</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>21.89172165463754</v>
       </c>
     </row>
     <row r="9">
@@ -28008,22 +28008,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>95.64327248234888</v>
+        <v>22.34629921577799</v>
       </c>
       <c r="S10" t="n">
         <v>194.6624603617375</v>
@@ -28065,16 +28065,16 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28324,7 +28324,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.041087216435699e-12</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -28500,7 +28500,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>-1.169834245014017e-12</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -28564,7 +28564,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -28746,7 +28746,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>-1.648459146963432e-12</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -29335,7 +29335,7 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -29566,7 +29566,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -29746,7 +29746,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -29989,13 +29989,13 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -30277,7 +30277,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>7.958078640513122e-13</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -30703,7 +30703,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -31045,16 +31045,16 @@
         <v>25.28116948649916</v>
       </c>
       <c r="I2" t="n">
-        <v>95.1692700235088</v>
+        <v>95.16927002350879</v>
       </c>
       <c r="J2" t="n">
-        <v>209.5161878388634</v>
+        <v>209.5161878388633</v>
       </c>
       <c r="K2" t="n">
         <v>314.0104541016252</v>
       </c>
       <c r="L2" t="n">
-        <v>389.5577350167918</v>
+        <v>389.5577350167917</v>
       </c>
       <c r="M2" t="n">
         <v>433.4580399459292</v>
@@ -31063,25 +31063,25 @@
         <v>440.4718441986831</v>
       </c>
       <c r="O2" t="n">
-        <v>415.9250721658379</v>
+        <v>415.9250721658378</v>
       </c>
       <c r="P2" t="n">
-        <v>354.9824263269073</v>
+        <v>354.9824263269072</v>
       </c>
       <c r="Q2" t="n">
-        <v>266.5770185656231</v>
+        <v>266.577018565623</v>
       </c>
       <c r="R2" t="n">
         <v>155.0658623465206</v>
       </c>
       <c r="S2" t="n">
-        <v>56.25237638702307</v>
+        <v>56.25237638702306</v>
       </c>
       <c r="T2" t="n">
         <v>10.8061339609081</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1974850295540029</v>
+        <v>0.1974850295540028</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.32079757678718</v>
+        <v>1.320797576787179</v>
       </c>
       <c r="H3" t="n">
         <v>12.75612396528671</v>
       </c>
       <c r="I3" t="n">
-        <v>45.47482884990948</v>
+        <v>45.47482884990947</v>
       </c>
       <c r="J3" t="n">
         <v>124.7864061472484</v>
       </c>
       <c r="K3" t="n">
-        <v>213.2798437919895</v>
+        <v>213.2798437919894</v>
       </c>
       <c r="L3" t="n">
         <v>286.7810703458304</v>
       </c>
       <c r="M3" t="n">
-        <v>334.6599825043656</v>
+        <v>334.6599825043655</v>
       </c>
       <c r="N3" t="n">
-        <v>343.517436429399</v>
+        <v>343.5174364293989</v>
       </c>
       <c r="O3" t="n">
         <v>314.2513427542725</v>
       </c>
       <c r="P3" t="n">
-        <v>252.2144074480712</v>
+        <v>252.2144074480711</v>
       </c>
       <c r="Q3" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R3" t="n">
-        <v>82.00530919736545</v>
+        <v>82.00530919736543</v>
       </c>
       <c r="S3" t="n">
-        <v>24.53323569163905</v>
+        <v>24.53323569163904</v>
       </c>
       <c r="T3" t="n">
-        <v>5.323741109944814</v>
+        <v>5.323741109944813</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08689457742020923</v>
+        <v>0.0868945774202092</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,22 +31197,22 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.107312319912174</v>
+        <v>1.107312319912173</v>
       </c>
       <c r="H4" t="n">
-        <v>9.845013171582789</v>
+        <v>9.845013171582787</v>
       </c>
       <c r="I4" t="n">
-        <v>33.29990140244975</v>
+        <v>33.29990140244974</v>
       </c>
       <c r="J4" t="n">
-        <v>78.28698101779068</v>
+        <v>78.28698101779067</v>
       </c>
       <c r="K4" t="n">
         <v>128.6495586225234</v>
       </c>
       <c r="L4" t="n">
-        <v>164.6271425440336</v>
+        <v>164.6271425440335</v>
       </c>
       <c r="M4" t="n">
         <v>173.576239384051</v>
@@ -31224,19 +31224,19 @@
         <v>156.513563181768</v>
       </c>
       <c r="P4" t="n">
-        <v>133.9243918555596</v>
+        <v>133.9243918555595</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.72230707919121</v>
+        <v>92.7223070791912</v>
       </c>
       <c r="R4" t="n">
-        <v>49.78878849350555</v>
+        <v>49.78878849350554</v>
       </c>
       <c r="S4" t="n">
         <v>19.29743379337851</v>
       </c>
       <c r="T4" t="n">
-        <v>4.731243548715651</v>
+        <v>4.73124354871565</v>
       </c>
       <c r="U4" t="n">
         <v>0.06039885381339136</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.883746537365118</v>
+        <v>2.883746537365127</v>
       </c>
       <c r="H5" t="n">
-        <v>29.53316922579052</v>
+        <v>29.53316922579061</v>
       </c>
       <c r="I5" t="n">
-        <v>111.1756383817688</v>
+        <v>111.1756383817691</v>
       </c>
       <c r="J5" t="n">
-        <v>244.7543826756929</v>
+        <v>244.7543826756936</v>
       </c>
       <c r="K5" t="n">
-        <v>366.8233736023585</v>
+        <v>366.8233736023595</v>
       </c>
       <c r="L5" t="n">
-        <v>455.0768316952463</v>
+        <v>455.0768316952476</v>
       </c>
       <c r="M5" t="n">
-        <v>506.3606591791132</v>
+        <v>506.3606591791146</v>
       </c>
       <c r="N5" t="n">
-        <v>514.5541040284019</v>
+        <v>514.5541040284033</v>
       </c>
       <c r="O5" t="n">
-        <v>485.8788493974774</v>
+        <v>485.8788493974788</v>
       </c>
       <c r="P5" t="n">
-        <v>414.686356756276</v>
+        <v>414.6863567562772</v>
       </c>
       <c r="Q5" t="n">
-        <v>311.4121838868876</v>
+        <v>311.4121838868885</v>
       </c>
       <c r="R5" t="n">
-        <v>181.1461434277618</v>
+        <v>181.1461434277623</v>
       </c>
       <c r="S5" t="n">
-        <v>65.7133742202077</v>
+        <v>65.71337422020788</v>
       </c>
       <c r="T5" t="n">
-        <v>12.62360046731581</v>
+        <v>12.62360046731585</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2306997229892094</v>
+        <v>0.2306997229892101</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.542940423270404</v>
+        <v>1.542940423270408</v>
       </c>
       <c r="H6" t="n">
-        <v>14.90155619316417</v>
+        <v>14.90155619316421</v>
       </c>
       <c r="I6" t="n">
-        <v>53.12316808189768</v>
+        <v>53.12316808189784</v>
       </c>
       <c r="J6" t="n">
-        <v>145.7740335862622</v>
+        <v>145.7740335862626</v>
       </c>
       <c r="K6" t="n">
-        <v>249.1510419453792</v>
+        <v>249.1510419453799</v>
       </c>
       <c r="L6" t="n">
-        <v>335.0143230438655</v>
+        <v>335.0143230438665</v>
       </c>
       <c r="M6" t="n">
-        <v>390.9459133874176</v>
+        <v>390.9459133874187</v>
       </c>
       <c r="N6" t="n">
-        <v>401.2930884189109</v>
+        <v>401.293088418912</v>
       </c>
       <c r="O6" t="n">
-        <v>367.1047769348667</v>
+        <v>367.1047769348677</v>
       </c>
       <c r="P6" t="n">
-        <v>294.6339480190651</v>
+        <v>294.6339480190659</v>
       </c>
       <c r="Q6" t="n">
-        <v>196.9549915739554</v>
+        <v>196.954991573956</v>
       </c>
       <c r="R6" t="n">
-        <v>95.79765189392914</v>
+        <v>95.79765189392941</v>
       </c>
       <c r="S6" t="n">
-        <v>28.65944163399191</v>
+        <v>28.65944163399199</v>
       </c>
       <c r="T6" t="n">
-        <v>6.219132670989038</v>
+        <v>6.219132670989056</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1015092383730529</v>
+        <v>0.1015092383730532</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.293549420141854</v>
+        <v>1.293549420141858</v>
       </c>
       <c r="H7" t="n">
-        <v>11.5008302990794</v>
+        <v>11.50083029907943</v>
       </c>
       <c r="I7" t="n">
-        <v>38.9005589257205</v>
+        <v>38.90055892572061</v>
       </c>
       <c r="J7" t="n">
-        <v>91.45394400402908</v>
+        <v>91.45394400402934</v>
       </c>
       <c r="K7" t="n">
-        <v>150.2869235401172</v>
+        <v>150.2869235401176</v>
       </c>
       <c r="L7" t="n">
-        <v>192.3155201545444</v>
+        <v>192.315520154545</v>
       </c>
       <c r="M7" t="n">
-        <v>202.7697513773272</v>
+        <v>202.7697513773277</v>
       </c>
       <c r="N7" t="n">
-        <v>197.9483399022531</v>
+        <v>197.9483399022537</v>
       </c>
       <c r="O7" t="n">
-        <v>182.8373307669596</v>
+        <v>182.8373307669601</v>
       </c>
       <c r="P7" t="n">
-        <v>156.4489225960656</v>
+        <v>156.4489225960661</v>
       </c>
       <c r="Q7" t="n">
-        <v>108.3171246266056</v>
+        <v>108.3171246266059</v>
       </c>
       <c r="R7" t="n">
-        <v>58.16268574565099</v>
+        <v>58.16268574565115</v>
       </c>
       <c r="S7" t="n">
-        <v>22.54303853101758</v>
+        <v>22.54303853101764</v>
       </c>
       <c r="T7" t="n">
-        <v>5.526983886060647</v>
+        <v>5.526983886060663</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07055724109864667</v>
+        <v>0.07055724109864688</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,46 +31750,46 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.833130601869145</v>
+        <v>4.833130601869144</v>
       </c>
       <c r="H11" t="n">
-        <v>49.4972987763924</v>
+        <v>49.49729877639239</v>
       </c>
       <c r="I11" t="n">
         <v>186.3292675285604</v>
       </c>
       <c r="J11" t="n">
-        <v>410.2059184203918</v>
+        <v>410.2059184203917</v>
       </c>
       <c r="K11" t="n">
-        <v>614.7923367975128</v>
+        <v>614.7923367975127</v>
       </c>
       <c r="L11" t="n">
-        <v>762.7042574544658</v>
+        <v>762.7042574544657</v>
       </c>
       <c r="M11" t="n">
-        <v>848.6554437954562</v>
+        <v>848.655443795456</v>
       </c>
       <c r="N11" t="n">
-        <v>862.387576118017</v>
+        <v>862.3875761180168</v>
       </c>
       <c r="O11" t="n">
-        <v>814.3281336956807</v>
+        <v>814.3281336956804</v>
       </c>
       <c r="P11" t="n">
-        <v>695.010221962036</v>
+        <v>695.0102219620359</v>
       </c>
       <c r="Q11" t="n">
-        <v>521.923732282597</v>
+        <v>521.9237322825969</v>
       </c>
       <c r="R11" t="n">
-        <v>303.599140169663</v>
+        <v>303.5991401696629</v>
       </c>
       <c r="S11" t="n">
-        <v>110.1349635900933</v>
+        <v>110.1349635900932</v>
       </c>
       <c r="T11" t="n">
-        <v>21.1570292096822</v>
+        <v>21.15702920968219</v>
       </c>
       <c r="U11" t="n">
         <v>0.3866504481495315</v>
@@ -31829,43 +31829,43 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.585952849858574</v>
+        <v>2.585952849858573</v>
       </c>
       <c r="H12" t="n">
-        <v>24.97486041837097</v>
+        <v>24.97486041837096</v>
       </c>
       <c r="I12" t="n">
-        <v>89.03390294469213</v>
+        <v>89.03390294469212</v>
       </c>
       <c r="J12" t="n">
-        <v>244.3158348193138</v>
+        <v>244.3158348193137</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>417.5746757598381</v>
       </c>
       <c r="L12" t="n">
-        <v>561.480683474775</v>
+        <v>561.4806834747749</v>
       </c>
       <c r="M12" t="n">
-        <v>655.2214742821482</v>
+        <v>655.2214742821481</v>
       </c>
       <c r="N12" t="n">
-        <v>547.2730446688108</v>
+        <v>672.5632370340505</v>
       </c>
       <c r="O12" t="n">
-        <v>615.2639659924475</v>
+        <v>225.1169475382824</v>
       </c>
       <c r="P12" t="n">
-        <v>493.8035753383447</v>
+        <v>493.8035753383446</v>
       </c>
       <c r="Q12" t="n">
-        <v>330.0946129047541</v>
+        <v>330.094612904754</v>
       </c>
       <c r="R12" t="n">
-        <v>160.5559146605175</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>48.03293999627655</v>
+        <v>48.03293999627653</v>
       </c>
       <c r="T12" t="n">
         <v>10.42320468868433</v>
@@ -31926,10 +31926,10 @@
         <v>322.3189048100542</v>
       </c>
       <c r="M13" t="n">
-        <v>339.8400926770065</v>
+        <v>339.8400926770064</v>
       </c>
       <c r="N13" t="n">
-        <v>331.759454853103</v>
+        <v>331.7594548531029</v>
       </c>
       <c r="O13" t="n">
         <v>306.4335533806239</v>
@@ -31938,16 +31938,16 @@
         <v>262.2068429493065</v>
       </c>
       <c r="Q13" t="n">
-        <v>181.5384268194576</v>
+        <v>181.5384268194575</v>
       </c>
       <c r="R13" t="n">
-        <v>97.48008457811713</v>
+        <v>97.48008457811711</v>
       </c>
       <c r="S13" t="n">
         <v>37.7819090449354</v>
       </c>
       <c r="T13" t="n">
-        <v>9.263170188377487</v>
+        <v>9.263170188377485</v>
       </c>
       <c r="U13" t="n">
         <v>0.1182532364473723</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>218.6425359394823</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071783</v>
+        <v>616.9033572954392</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.689256441856</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,46 +32148,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32309,34 +32309,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>746.4857620875799</v>
       </c>
       <c r="O18" t="n">
-        <v>638.9422653403558</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,10 +32540,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32552,37 +32552,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>446.012731199064</v>
       </c>
       <c r="N21" t="n">
-        <v>567.4250434254225</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32783,13 +32783,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>342.8454457931495</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
@@ -32798,19 +32798,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>168.0123247135882</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33023,22 +33023,22 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>624.2063432190395</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>344.2757660550399</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33257,7 +33257,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33272,7 +33272,7 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>750.6021172789107</v>
       </c>
       <c r="O30" t="n">
         <v>142.5962444444444</v>
@@ -33284,7 +33284,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>166.2270851128133</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33503,7 +33503,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>624.2063432190395</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33515,13 +33515,13 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>156.3072281639545</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33746,19 +33746,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>322.6999460717714</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33971,13 +33971,13 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33986,13 +33986,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34205,7 +34205,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34217,19 +34217,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
-        <v>200.4500263280939</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34442,7 +34442,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34451,25 +34451,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>244.0266243181833</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.47028331217709</v>
+        <v>28.47028331217703</v>
       </c>
       <c r="K2" t="n">
-        <v>93.92060305664467</v>
+        <v>93.92060305664461</v>
       </c>
       <c r="L2" t="n">
         <v>153.7913200468045</v>
       </c>
       <c r="M2" t="n">
-        <v>203.1118067186565</v>
+        <v>203.1118067186564</v>
       </c>
       <c r="N2" t="n">
         <v>211.0587806020922</v>
       </c>
       <c r="O2" t="n">
-        <v>185.8268607441512</v>
+        <v>185.8268607441511</v>
       </c>
       <c r="P2" t="n">
         <v>123.7494305716377</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.27132869117358</v>
+        <v>44.27132869117352</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,25 +34778,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>75.43840481763047</v>
+        <v>172.7600739089033</v>
       </c>
       <c r="L3" t="n">
         <v>148.2266905659562</v>
       </c>
       <c r="M3" t="n">
-        <v>192.5259485823473</v>
+        <v>192.5259485823472</v>
       </c>
       <c r="N3" t="n">
-        <v>212.1757243460657</v>
+        <v>212.1757243460656</v>
       </c>
       <c r="O3" t="n">
-        <v>171.6550983098281</v>
+        <v>171.655098309828</v>
       </c>
       <c r="P3" t="n">
-        <v>215.5616691250133</v>
+        <v>118.2400000337409</v>
       </c>
       <c r="Q3" t="n">
-        <v>28.61687799649638</v>
+        <v>28.61687799649636</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34872,10 +34872,10 @@
         <v>181.0986910958077</v>
       </c>
       <c r="P4" t="n">
-        <v>131.2029511204531</v>
+        <v>131.202951120453</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.560263827496826</v>
+        <v>6.560263827496811</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>63.70847814900665</v>
+        <v>63.70847814900733</v>
       </c>
       <c r="K5" t="n">
-        <v>146.7335225573779</v>
+        <v>146.7335225573789</v>
       </c>
       <c r="L5" t="n">
-        <v>219.310416725259</v>
+        <v>219.3104167252603</v>
       </c>
       <c r="M5" t="n">
-        <v>276.0144259518404</v>
+        <v>276.0144259518419</v>
       </c>
       <c r="N5" t="n">
-        <v>285.1410404318109</v>
+        <v>285.1410404318124</v>
       </c>
       <c r="O5" t="n">
-        <v>255.7806379757907</v>
+        <v>255.7806379757921</v>
       </c>
       <c r="P5" t="n">
-        <v>183.4533610010065</v>
+        <v>183.4533610010076</v>
       </c>
       <c r="Q5" t="n">
-        <v>89.10649401243816</v>
+        <v>89.10649401243901</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>18.93640691959547</v>
+        <v>18.9364069195959</v>
       </c>
       <c r="K6" t="n">
-        <v>111.3096029710202</v>
+        <v>342.9474802368785</v>
       </c>
       <c r="L6" t="n">
-        <v>293.221972179816</v>
+        <v>196.4599432639923</v>
       </c>
       <c r="M6" t="n">
-        <v>383.6877278154298</v>
+        <v>248.8118794654004</v>
       </c>
       <c r="N6" t="n">
-        <v>269.9513763355776</v>
+        <v>269.9513763355787</v>
       </c>
       <c r="O6" t="n">
-        <v>224.5085324904222</v>
+        <v>224.5085324904232</v>
       </c>
       <c r="P6" t="n">
-        <v>160.6595406047349</v>
+        <v>160.6595406047357</v>
       </c>
       <c r="Q6" t="n">
-        <v>56.97321748793391</v>
+        <v>56.97321748793448</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,25 +35094,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>128.0174317142343</v>
+        <v>128.0174317142348</v>
       </c>
       <c r="L7" t="n">
-        <v>219.9055454148605</v>
+        <v>219.9055454148611</v>
       </c>
       <c r="M7" t="n">
-        <v>242.3536283391678</v>
+        <v>242.3536283391683</v>
       </c>
       <c r="N7" t="n">
-        <v>242.0805122814817</v>
+        <v>242.0805122814823</v>
       </c>
       <c r="O7" t="n">
-        <v>207.4224586809993</v>
+        <v>207.4224586809998</v>
       </c>
       <c r="P7" t="n">
-        <v>153.7274818609591</v>
+        <v>153.7274818609596</v>
       </c>
       <c r="Q7" t="n">
-        <v>22.15508137491123</v>
+        <v>22.15508137491155</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35249,16 +35249,16 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091739</v>
+        <v>117.9333660065831</v>
       </c>
       <c r="K9" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L9" t="n">
-        <v>553.5225306839449</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M9" t="n">
-        <v>640.5848321000387</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N9" t="n">
         <v>391.1970995928739</v>
@@ -35270,7 +35270,7 @@
         <v>249.6795291235322</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308545</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>229.1600138937055</v>
+        <v>229.1600138937054</v>
       </c>
       <c r="K11" t="n">
-        <v>394.7024857525323</v>
+        <v>394.7024857525321</v>
       </c>
       <c r="L11" t="n">
         <v>526.9378424844786</v>
       </c>
       <c r="M11" t="n">
-        <v>618.3092105681835</v>
+        <v>618.3092105681833</v>
       </c>
       <c r="N11" t="n">
-        <v>632.974512521426</v>
+        <v>632.9745125214258</v>
       </c>
       <c r="O11" t="n">
-        <v>584.2299222739939</v>
+        <v>584.2299222739937</v>
       </c>
       <c r="P11" t="n">
-        <v>463.7772262067664</v>
+        <v>463.7772262067663</v>
       </c>
       <c r="Q11" t="n">
-        <v>299.6180424081475</v>
+        <v>299.6180424081474</v>
       </c>
       <c r="R11" t="n">
-        <v>88.01360235553085</v>
+        <v>88.01360235553079</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>117.4782081526471</v>
+        <v>117.478208152647</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>279.7332367854791</v>
       </c>
       <c r="L12" t="n">
-        <v>422.9263036949008</v>
+        <v>422.9263036949007</v>
       </c>
       <c r="M12" t="n">
-        <v>513.0874403601299</v>
+        <v>513.0874403601297</v>
       </c>
       <c r="N12" t="n">
-        <v>415.9313325854775</v>
+        <v>541.2215249507173</v>
       </c>
       <c r="O12" t="n">
-        <v>472.6677215480031</v>
+        <v>82.52070309383795</v>
       </c>
       <c r="P12" t="n">
-        <v>359.8291679240144</v>
+        <v>359.8291679240143</v>
       </c>
       <c r="Q12" t="n">
-        <v>190.1128388187326</v>
+        <v>190.1128388187325</v>
       </c>
       <c r="R12" t="n">
-        <v>14.87641069655351</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,19 +35565,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>59.91672319186281</v>
+        <v>59.91672319186279</v>
       </c>
       <c r="K13" t="n">
-        <v>229.6099018070199</v>
+        <v>229.6099018070198</v>
       </c>
       <c r="L13" t="n">
-        <v>349.9089300703704</v>
+        <v>349.9089300703703</v>
       </c>
       <c r="M13" t="n">
         <v>379.423969638847</v>
       </c>
       <c r="N13" t="n">
-        <v>375.8916272323315</v>
+        <v>375.8916272323314</v>
       </c>
       <c r="O13" t="n">
         <v>331.0186812946636</v>
@@ -35586,7 +35586,7 @@
         <v>259.4854022142</v>
       </c>
       <c r="Q13" t="n">
-        <v>95.3763835677632</v>
+        <v>95.37638356776314</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>91.80490927281558</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674329</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.937336923845</v>
+        <v>485.5616452121058</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992797</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789208</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>615.1440500042467</v>
       </c>
       <c r="O18" t="n">
-        <v>496.3460208959114</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36042,7 +36042,7 @@
         <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096333</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
         <v>394.3420143191314</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,25 +36200,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>303.8786972770457</v>
       </c>
       <c r="N21" t="n">
-        <v>436.0833313420891</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998979</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36431,13 +36431,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>205.0040068187905</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
@@ -36446,19 +36446,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>22.33282074962425</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36671,22 +36671,22 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>485.6519634391653</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>212.9340539717066</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36920,7 +36920,7 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>619.2604051955774</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -36932,7 +36932,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>20.54758114884936</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37151,7 +37151,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>485.6519634391653</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37163,13 +37163,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>22.33282074962425</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37394,19 +37394,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>191.358233988438</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37619,13 +37619,13 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37634,13 +37634,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37865,19 +37865,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
-        <v>66.47561891376371</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38099,25 +38099,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>101.892590396165</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
